--- a/src/excel/tolgas_pp.xlsx
+++ b/src/excel/tolgas_pp.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>97</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
